--- a/2_Formulas_Functions/8_Text_Functions.xlsx
+++ b/2_Formulas_Functions/8_Text_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27920"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648B5D68-5AAA-4534-8755-FEC7F13B1F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387BE08A-B5B7-403D-9AFF-97C1FA1DF32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="9768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="8" r:id="rId1"/>
@@ -525,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -541,7 +541,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1783,23 +1784,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.578125" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.26171875" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -2358,24 +2359,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BCB134-41DE-47D5-9456-1C60C9867AFA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.68359375" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.578125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="40" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="10" max="10" width="29.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -2400,11 +2401,11 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>203 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>123 Elm St Los Angeles, CA, 90001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>123 Elm St San Diego, CA, 92101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>202 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>456 Oak St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>203 Birch St Chicago, IL, 60602</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>456 Oak St New York, NY, 10001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -3013,27 +3014,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F197DD-EE87-4022-A4E6-1027B6E64DD6}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.83984375" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3058,24 +3059,24 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>66</v>
       </c>
       <c r="K1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>0123548</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>0123549</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>0123550</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -3252,7 +3253,7 @@
         <v>0123551</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v>0123552</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>0123553</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>0123554</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>0123555</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>0123556</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>0123557</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -3542,7 +3543,7 @@
         <v>0123558</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>0123559</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>0123560</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>0123561</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>0123562</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>0123563</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -3788,7 +3789,7 @@
         <v>0123564</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>0123565</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>0123566</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -3920,25 +3921,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.15625" customWidth="1"/>
+    <col min="5" max="5" width="26.15625" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.578125" customWidth="1"/>
+    <col min="10" max="10" width="9.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3963,13 +3964,13 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <f>FIND(", ",G2)+2</f>
+        <f>FIND(", ",G2)+LEN(", ")</f>
         <v>11</v>
       </c>
       <c r="K2">
@@ -4007,7 +4008,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J21" si="0">FIND(", ",G3)+2</f>
+        <f t="shared" ref="J3:J21" si="0">FIND(", ",G3)+LEN(", ")</f>
         <v>10</v>
       </c>
       <c r="K3">
@@ -4045,7 +4046,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -4387,7 +4388,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -4501,7 +4502,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>NY</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -4741,32 +4742,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85789AE4-586B-4DA1-B069-1172780CDADC}">
   <dimension ref="A2:BW25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
         <f>_xlfn.TEXTJOIN(", ", TRUE, Original!H2:H21)</f>
         <v>Kafka, DataBricks, Spark, Python, GCP, Power BI, GCP, Airflow, Hadoop, R, Azure, Java, SQL, DataBricks, Kafka, DataBricks, Spark, Python, GCP, DataBricks, Hadoop, Java, Snowflake, Airflow, DataBricks, Azure, Java, SQL, DataBricks, Snowflake, Airflow, DataBricks, Scala, Azure, R, Kafka, Snowflake, Excel, Scala, Excel, Power BI, R, Scala, R, Hadoop, Power BI, SQL, Snowflake, Airflow, DataBricks, Java, Scala, R, DataBricks, Azure, Scala, Power BI, GCP, Airflow, Hadoop, R, DataBricks, Hadoop, Java, Snowflake, Power BI, Tableau, Airflow, SQL, DataBricks, Hadoop, Java, DataBricks, Hadoop, Java</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str" cm="1">
         <f t="array" ref="A6:BW6">_xlfn.TEXTSPLIT(A3, ", ")</f>
         <v>Kafka</v>
@@ -4994,7 +4995,7 @@
         <v>Java</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
@@ -5002,7 +5003,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="str" cm="1">
         <f t="array" ref="A9:A25">_xlfn.UNIQUE(TRANSPOSE(6:6))</f>
         <v>Kafka</v>
@@ -5012,7 +5013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="str">
         <v>DataBricks</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="str">
         <v>Spark</v>
       </c>
@@ -5030,7 +5031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="str">
         <v>Python</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="str">
         <v>GCP</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="str">
         <v>Power BI</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="str">
         <v>Airflow</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="str">
         <v>Hadoop</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="str">
         <v>R</v>
       </c>
@@ -5084,7 +5085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="str">
         <v>Azure</v>
       </c>
@@ -5093,7 +5094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="str">
         <v>Java</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="str">
         <v>SQL</v>
       </c>
@@ -5111,7 +5112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="str">
         <v>Snowflake</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="str">
         <v>Scala</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="str">
         <v>Excel</v>
       </c>
@@ -5138,7 +5139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="str">
         <v>Tableau</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>0</v>
       </c>

--- a/2_Formulas_Functions/8_Text_Functions.xlsx
+++ b/2_Formulas_Functions/8_Text_Functions.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387BE08A-B5B7-403D-9AFF-97C1FA1DF32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A8E958-BE05-433B-847A-9E33551A061E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="9768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="8" r:id="rId1"/>
-    <sheet name="Text Combination" sheetId="9" r:id="rId2"/>
-    <sheet name="Text Extraction" sheetId="10" r:id="rId3"/>
-    <sheet name="Text Search" sheetId="11" r:id="rId4"/>
+    <sheet name="Text_Combination" sheetId="9" r:id="rId2"/>
+    <sheet name="Text_Extraction" sheetId="10" r:id="rId3"/>
+    <sheet name="Text_Search" sheetId="11" r:id="rId4"/>
     <sheet name="Skills" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1784,23 +1784,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.578125" customWidth="1"/>
-    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.26171875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -2363,20 +2363,20 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.68359375" customWidth="1"/>
-    <col min="3" max="3" width="27.26171875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.578125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="40" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="29.15625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>203 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>123 Elm St Los Angeles, CA, 90001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>123 Elm St San Diego, CA, 92101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>202 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>456 Oak St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>203 Birch St Chicago, IL, 60602</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>456 Oak St New York, NY, 10001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -3018,23 +3018,23 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="11.83984375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.26171875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>0123548</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>0123549</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>0123550</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>0123551</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>0123552</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>0123553</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>0123554</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>0123555</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>0123556</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>0123557</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>0123558</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0123559</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>0123560</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0123561</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>0123562</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>0123563</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0123564</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0123565</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>0123566</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -3921,25 +3921,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.15625" customWidth="1"/>
-    <col min="5" max="5" width="26.15625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.578125" customWidth="1"/>
-    <col min="10" max="10" width="9.15625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>NY</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -4746,28 +4746,28 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.41796875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>_xlfn.TEXTJOIN(", ", TRUE, Original!H2:H21)</f>
         <v>Kafka, DataBricks, Spark, Python, GCP, Power BI, GCP, Airflow, Hadoop, R, Azure, Java, SQL, DataBricks, Kafka, DataBricks, Spark, Python, GCP, DataBricks, Hadoop, Java, Snowflake, Airflow, DataBricks, Azure, Java, SQL, DataBricks, Snowflake, Airflow, DataBricks, Scala, Azure, R, Kafka, Snowflake, Excel, Scala, Excel, Power BI, R, Scala, R, Hadoop, Power BI, SQL, Snowflake, Airflow, DataBricks, Java, Scala, R, DataBricks, Azure, Scala, Power BI, GCP, Airflow, Hadoop, R, DataBricks, Hadoop, Java, Snowflake, Power BI, Tableau, Airflow, SQL, DataBricks, Hadoop, Java, DataBricks, Hadoop, Java</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A6" t="str" cm="1">
         <f t="array" ref="A6:BW6">_xlfn.TEXTSPLIT(A3, ", ")</f>
         <v>Kafka</v>
@@ -4995,7 +4995,7 @@
         <v>Java</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str" cm="1">
         <f t="array" ref="A9:A25">_xlfn.UNIQUE(TRANSPOSE(6:6))</f>
         <v>Kafka</v>
@@ -5013,7 +5013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <v>DataBricks</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <v>Spark</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <v>Python</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <v>GCP</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <v>Power BI</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <v>Airflow</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <v>Hadoop</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <v>R</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <v>Azure</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <v>Java</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <v>SQL</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <v>Snowflake</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <v>Scala</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <v>Excel</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <v>Tableau</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>

--- a/2_Formulas_Functions/8_Text_Functions.xlsx
+++ b/2_Formulas_Functions/8_Text_Functions.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A8E958-BE05-433B-847A-9E33551A061E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B023613F-9545-47BE-B8FD-F4D4BF32A925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Original" sheetId="8" r:id="rId1"/>
+    <sheet name="Data" sheetId="8" r:id="rId1"/>
     <sheet name="Text_Combination" sheetId="9" r:id="rId2"/>
     <sheet name="Text_Extraction" sheetId="10" r:id="rId3"/>
     <sheet name="Text_Search" sheetId="11" r:id="rId4"/>
@@ -1784,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3921,7 +3921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>_xlfn.TEXTJOIN(", ", TRUE, Original!H2:H21)</f>
+        <f>_xlfn.TEXTJOIN(", ", TRUE, Data!H2:H21)</f>
         <v>Kafka, DataBricks, Spark, Python, GCP, Power BI, GCP, Airflow, Hadoop, R, Azure, Java, SQL, DataBricks, Kafka, DataBricks, Spark, Python, GCP, DataBricks, Hadoop, Java, Snowflake, Airflow, DataBricks, Azure, Java, SQL, DataBricks, Snowflake, Airflow, DataBricks, Scala, Azure, R, Kafka, Snowflake, Excel, Scala, Excel, Power BI, R, Scala, R, Hadoop, Power BI, SQL, Snowflake, Airflow, DataBricks, Java, Scala, R, DataBricks, Azure, Scala, Power BI, GCP, Airflow, Hadoop, R, DataBricks, Hadoop, Java, Snowflake, Power BI, Tableau, Airflow, SQL, DataBricks, Hadoop, Java, DataBricks, Hadoop, Java</v>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
         <v>Kafka</v>
       </c>
       <c r="B9" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A9&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A9&amp;"*")</f>
         <v>3</v>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
         <v>DataBricks</v>
       </c>
       <c r="B10" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A10&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A10&amp;"*")</f>
         <v>12</v>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
         <v>Spark</v>
       </c>
       <c r="B11" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A11&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A11&amp;"*")</f>
         <v>2</v>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
         <v>Python</v>
       </c>
       <c r="B12" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A12&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A12&amp;"*")</f>
         <v>2</v>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
         <v>GCP</v>
       </c>
       <c r="B13" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A13&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A13&amp;"*")</f>
         <v>4</v>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
         <v>Power BI</v>
       </c>
       <c r="B14" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A14&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A14&amp;"*")</f>
         <v>5</v>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
         <v>Airflow</v>
       </c>
       <c r="B15" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A15&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A15&amp;"*")</f>
         <v>6</v>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
         <v>Hadoop</v>
       </c>
       <c r="B16" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A16&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A16&amp;"*")</f>
         <v>7</v>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
         <v>R</v>
       </c>
       <c r="B17" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A17&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A17&amp;"*")</f>
         <v>19</v>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
         <v>Azure</v>
       </c>
       <c r="B18" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A18&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A18&amp;"*")</f>
         <v>4</v>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
         <v>Java</v>
       </c>
       <c r="B19" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A19&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A19&amp;"*")</f>
         <v>7</v>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
         <v>SQL</v>
       </c>
       <c r="B20" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A20&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A20&amp;"*")</f>
         <v>4</v>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
         <v>Snowflake</v>
       </c>
       <c r="B21" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A21&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A21&amp;"*")</f>
         <v>5</v>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
         <v>Scala</v>
       </c>
       <c r="B22" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A22&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A22&amp;"*")</f>
         <v>5</v>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
         <v>Excel</v>
       </c>
       <c r="B23" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A23&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A23&amp;"*")</f>
         <v>2</v>
       </c>
     </row>
@@ -5144,7 +5144,7 @@
         <v>Tableau</v>
       </c>
       <c r="B24" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A24&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A24&amp;"*")</f>
         <v>1</v>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1">
-        <f>COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A25&amp;"*")</f>
+        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A25&amp;"*")</f>
         <v>0</v>
       </c>
     </row>

--- a/2_Formulas_Functions/8_Text_Functions.xlsx
+++ b/2_Formulas_Functions/8_Text_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B023613F-9545-47BE-B8FD-F4D4BF32A925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B42B756-3860-4CBB-9AD4-E4FE9DB32220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -340,13 +340,13 @@
     <t>Applicant ID (Short)</t>
   </si>
   <si>
-    <t>=TEXTJOIN(", ", TRUE, Original!H1:H20)</t>
-  </si>
-  <si>
-    <t>=COUNTIF(Original!$H$2:$H$21, "*"&amp;Skills!A9&amp;"*")</t>
-  </si>
-  <si>
     <t>Application Date &amp; Time</t>
+  </si>
+  <si>
+    <t>=TEXTJOIN(", ", TRUE, Data!H1:H20)</t>
+  </si>
+  <si>
+    <t>=COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A9&amp;"*")</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -1811,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -2360,7 +2360,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,7 +2387,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -3014,7 +3014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F197DD-EE87-4022-A4E6-1027B6E64DD6}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -3045,7 +3045,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -3922,7 +3922,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,7 +3950,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -4742,8 +4742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85789AE4-586B-4DA1-B069-1172780CDADC}">
   <dimension ref="A2:BW25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4753,7 +4753,7 @@
   <sheetData>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
@@ -5000,7 +5000,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.25">

--- a/2_Formulas_Functions/8_Text_Functions.xlsx
+++ b/2_Formulas_Functions/8_Text_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B42B756-3860-4CBB-9AD4-E4FE9DB32220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E16270C-16CF-4500-B3A8-DBB4542786E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="8" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="95">
   <si>
     <t>Email</t>
   </si>
@@ -346,7 +346,7 @@
     <t>=TEXTJOIN(", ", TRUE, Data!H1:H20)</t>
   </si>
   <si>
-    <t>=COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A9&amp;"*")</t>
+    <t>=COUNTIF($6:$6,A9)</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -537,7 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -545,6 +544,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +598,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Skill Count</a:t>
+              <a:t>Skill Count of Applicants</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -635,7 +636,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -738,7 +739,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
@@ -766,7 +767,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5615-4F66-AACE-621ED310D9EF}"/>
+              <c16:uniqueId val="{00000000-F30C-45CA-B8A0-F5AF8B1DA29B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -778,18 +779,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="171951696"/>
-        <c:axId val="171961296"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="1389519888"/>
+        <c:axId val="1389514128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171951696"/>
+        <c:axId val="1389519888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -827,7 +827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171961296"/>
+        <c:crossAx val="1389514128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -835,12 +835,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171961296"/>
+        <c:axId val="1389514128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -886,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171951696"/>
+        <c:crossAx val="1389519888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -976,7 +976,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1180,22 +1180,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1300,8 +1301,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1433,19 +1434,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1483,22 +1485,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>563562</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>588963</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>10477</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>30163</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3BD3A8-9A7A-7E78-0EC6-8619115F626F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C6A45A-EB32-62D3-58CF-3F02DAF72B23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,25 +1784,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.578125" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" customWidth="1"/>
+    <col min="4" max="4" width="17.578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.26171875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="8.83984375" customWidth="1"/>
+    <col min="10" max="10" width="34.734375" customWidth="1"/>
+    <col min="11" max="11" width="8.83984375" customWidth="1"/>
+    <col min="12" max="12" width="13.3125" customWidth="1"/>
+    <col min="13" max="13" width="15.47265625" customWidth="1"/>
+    <col min="14" max="14" width="8.83984375" customWidth="1"/>
+    <col min="15" max="15" width="16.41796875" customWidth="1"/>
+    <col min="17" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1825,8 +1835,30 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -1836,7 +1868,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>44971.640451388892</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1851,8 +1883,20 @@
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <f>FIND(",", G2)+LEN(", ")</f>
+        <v>11</v>
+      </c>
+      <c r="R2">
+        <f>FIND(",",G2,Q2)</f>
+        <v>13</v>
+      </c>
+      <c r="S2" t="str">
+        <f>MID(G2,Q2,R2-Q2)</f>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -1862,7 +1906,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>45055.40662037037</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1877,8 +1921,20 @@
       <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q21" si="0">FIND(",", G3)+LEN(", ")</f>
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R21" si="1">FIND(",",G3,Q3)</f>
+        <v>12</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S21" si="2">MID(G3,Q3,R3-Q3)</f>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -1888,7 +1944,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>45128.729710648149</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1903,8 +1959,20 @@
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -1914,7 +1982,7 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>45173.302187499998</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1929,8 +1997,20 @@
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="2"/>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -1940,7 +2020,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>45248.70857638889</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1955,8 +2035,20 @@
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -1966,7 +2058,7 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>45302.531921296293</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1981,8 +2073,20 @@
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -1992,7 +2096,7 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>45354.687881944446</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2007,8 +2111,20 @@
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2018,7 +2134,7 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>45408.340810185182</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2033,8 +2149,20 @@
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2044,7 +2172,7 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>45458.743333333332</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2059,8 +2187,20 @@
       <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2070,7 +2210,7 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>45480.608055555553</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2085,8 +2225,20 @@
       <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -2096,7 +2248,7 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>45455.284930555557</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2111,8 +2263,20 @@
       <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -2122,7 +2286,7 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>44951.552141203705</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2137,8 +2301,20 @@
       <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -2148,7 +2324,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>45002.490034722221</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2163,8 +2339,20 @@
       <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -2174,7 +2362,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>45078.417256944442</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2189,8 +2377,20 @@
       <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -2200,7 +2400,7 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>45168.729328703703</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2215,8 +2415,20 @@
       <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -2226,7 +2438,7 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>45218.319780092592</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2241,8 +2453,20 @@
       <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -2252,7 +2476,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>45350.719236111108</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2267,8 +2491,20 @@
       <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -2278,7 +2514,7 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>45418.726354166669</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2293,8 +2529,20 @@
       <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>NY</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2304,7 +2552,7 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>45496.291701388887</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2319,8 +2567,20 @@
       <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -2330,7 +2590,7 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>45422.739884259259</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -2344,12 +2604,28 @@
       </c>
       <c r="H21" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>NY</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H22">
     <sortCondition ref="D1:D22"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2359,24 +2635,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BCB134-41DE-47D5-9456-1C60C9867AFA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.68359375" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.578125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -2401,11 +2676,11 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -2415,7 +2690,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>44971.640451388892</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2435,7 +2710,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -2445,7 +2720,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>45055.40662037037</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2465,7 +2740,7 @@
         <v>203 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -2475,7 +2750,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>45128.729710648149</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2495,7 +2770,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -2505,7 +2780,7 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>45173.302187499998</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2525,7 +2800,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2535,7 +2810,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>45248.70857638889</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2555,7 +2830,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -2565,7 +2840,7 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>45302.531921296293</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2585,7 +2860,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -2595,7 +2870,7 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>45354.687881944446</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2615,7 +2890,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2625,7 +2900,7 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>45408.340810185182</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2645,7 +2920,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2655,7 +2930,7 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>45458.743333333332</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2675,7 +2950,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2685,7 +2960,7 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>45480.608055555553</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2705,7 +2980,7 @@
         <v>123 Elm St Los Angeles, CA, 90001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -2715,7 +2990,7 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>45455.284930555557</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2735,7 +3010,7 @@
         <v>123 Elm St San Diego, CA, 92101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -2745,7 +3020,7 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>44951.552141203705</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2765,7 +3040,7 @@
         <v>202 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -2775,7 +3050,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>45002.490034722221</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2795,7 +3070,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -2805,7 +3080,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>45078.417256944442</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2825,7 +3100,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -2835,7 +3110,7 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>45168.729328703703</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2855,7 +3130,7 @@
         <v>456 Oak St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -2865,7 +3140,7 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>45218.319780092592</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2885,7 +3160,7 @@
         <v>203 Birch St Chicago, IL, 60602</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -2895,7 +3170,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>45350.719236111108</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2915,7 +3190,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -2925,7 +3200,7 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>45418.726354166669</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2945,7 +3220,7 @@
         <v>456 Oak St New York, NY, 10001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2955,7 +3230,7 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>45496.291701388887</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2975,7 +3250,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -2985,7 +3260,7 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>45422.739884259259</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -3014,27 +3289,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F197DD-EE87-4022-A4E6-1027B6E64DD6}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83984375" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3059,24 +3332,24 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -3086,7 +3359,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>44971.640451388892</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3121,7 +3394,7 @@
         <v>0123548</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -3131,7 +3404,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>45055.40662037037</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3165,7 +3438,7 @@
         <v>0123549</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -3175,7 +3448,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>45128.729710648149</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3209,7 +3482,7 @@
         <v>0123550</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -3219,7 +3492,7 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>45173.302187499998</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3253,7 +3526,7 @@
         <v>0123551</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -3263,7 +3536,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>45248.70857638889</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3297,7 +3570,7 @@
         <v>0123552</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -3307,7 +3580,7 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>45302.531921296293</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3338,7 +3611,7 @@
         <v>0123553</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -3348,7 +3621,7 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>45354.687881944446</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -3379,7 +3652,7 @@
         <v>0123554</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -3389,7 +3662,7 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>45408.340810185182</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3420,7 +3693,7 @@
         <v>0123555</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -3430,7 +3703,7 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>45458.743333333332</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3461,7 +3734,7 @@
         <v>0123556</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -3471,7 +3744,7 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>45480.608055555553</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3502,7 +3775,7 @@
         <v>0123557</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -3512,7 +3785,7 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>45455.284930555557</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3543,7 +3816,7 @@
         <v>0123558</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -3553,7 +3826,7 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>44951.552141203705</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -3584,7 +3857,7 @@
         <v>0123559</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -3594,7 +3867,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>45002.490034722221</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -3625,7 +3898,7 @@
         <v>0123560</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -3635,7 +3908,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>45078.417256944442</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3666,7 +3939,7 @@
         <v>0123561</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -3676,7 +3949,7 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>45168.729328703703</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3707,7 +3980,7 @@
         <v>0123562</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -3717,7 +3990,7 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>45218.319780092592</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3748,7 +4021,7 @@
         <v>0123563</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -3758,7 +4031,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>45350.719236111108</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3789,7 +4062,7 @@
         <v>0123564</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -3799,7 +4072,7 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>45418.726354166669</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3830,7 +4103,7 @@
         <v>0123565</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -3840,7 +4113,7 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>45496.291701388887</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3871,7 +4144,7 @@
         <v>0123566</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -3881,7 +4154,7 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>45422.739884259259</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -3921,25 +4194,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E73CB36-69AF-4B27-BCC8-FDB353A4DE72}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.15625" customWidth="1"/>
+    <col min="5" max="5" width="26.15625" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="40" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3964,13 +4235,13 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -3980,7 +4251,7 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>44971.640451388892</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4008,7 +4279,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -4018,7 +4289,7 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>45055.40662037037</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4046,7 +4317,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -4056,7 +4327,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>45128.729710648149</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4084,7 +4355,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -4094,7 +4365,7 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>45173.302187499998</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4122,7 +4393,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -4132,7 +4403,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>45248.70857638889</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4160,7 +4431,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -4170,7 +4441,7 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>45302.531921296293</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4198,7 +4469,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -4208,7 +4479,7 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>45354.687881944446</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4236,7 +4507,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -4246,7 +4517,7 @@
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>45408.340810185182</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4274,7 +4545,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -4284,7 +4555,7 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>45458.743333333332</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4312,7 +4583,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -4322,7 +4593,7 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>45480.608055555553</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -4350,7 +4621,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -4360,7 +4631,7 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>45455.284930555557</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -4388,7 +4659,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -4398,7 +4669,7 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>44951.552141203705</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -4426,7 +4697,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -4436,7 +4707,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>45002.490034722221</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -4464,7 +4735,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -4474,7 +4745,7 @@
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>45078.417256944442</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -4502,7 +4773,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -4512,7 +4783,7 @@
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>45168.729328703703</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -4540,7 +4811,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -4550,7 +4821,7 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>45218.319780092592</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -4578,7 +4849,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -4588,7 +4859,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>45350.719236111108</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -4616,7 +4887,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -4626,7 +4897,7 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>45418.726354166669</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -4654,7 +4925,7 @@
         <v>NY</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -4664,7 +4935,7 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>45496.291701388887</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -4692,7 +4963,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -4702,7 +4973,7 @@
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>45422.739884259259</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -4742,34 +5013,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85789AE4-586B-4DA1-B069-1172780CDADC}">
   <dimension ref="A2:BW25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
-        <f>_xlfn.TEXTJOIN(", ", TRUE, Data!H2:H21)</f>
+        <f>_xlfn.TEXTJOIN(", ",TRUE,Data!H2:H21)</f>
         <v>Kafka, DataBricks, Spark, Python, GCP, Power BI, GCP, Airflow, Hadoop, R, Azure, Java, SQL, DataBricks, Kafka, DataBricks, Spark, Python, GCP, DataBricks, Hadoop, Java, Snowflake, Airflow, DataBricks, Azure, Java, SQL, DataBricks, Snowflake, Airflow, DataBricks, Scala, Azure, R, Kafka, Snowflake, Excel, Scala, Excel, Power BI, R, Scala, R, Hadoop, Power BI, SQL, Snowflake, Airflow, DataBricks, Java, Scala, R, DataBricks, Azure, Scala, Power BI, GCP, Airflow, Hadoop, R, DataBricks, Hadoop, Java, Snowflake, Power BI, Tableau, Airflow, SQL, DataBricks, Hadoop, Java, DataBricks, Hadoop, Java</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str" cm="1">
-        <f t="array" ref="A6:BW6">_xlfn.TEXTSPLIT(A3, ", ")</f>
+        <f t="array" ref="A6:BW6">_xlfn.TEXTSPLIT(A3,", ")</f>
         <v>Kafka</v>
       </c>
       <c r="B6" t="str">
@@ -4995,165 +5266,169 @@
         <v>Java</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="str" cm="1">
         <f t="array" ref="A9:A25">_xlfn.UNIQUE(TRANSPOSE(6:6))</f>
         <v>Kafka</v>
       </c>
       <c r="B9" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A9&amp;"*")</f>
+        <f>COUNTIF($6:$6,A9)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="str">
         <v>DataBricks</v>
       </c>
       <c r="B10" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A10&amp;"*")</f>
+        <f t="shared" ref="B10:B25" si="0">COUNTIF($6:$6,A10)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="str">
         <v>Spark</v>
       </c>
       <c r="B11" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A11&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="str">
         <v>Python</v>
       </c>
       <c r="B12" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A12&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="str">
         <v>GCP</v>
       </c>
       <c r="B13" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A13&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="str">
         <v>Power BI</v>
       </c>
       <c r="B14" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A14&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="str">
         <v>Airflow</v>
       </c>
       <c r="B15" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A15&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="str">
         <v>Hadoop</v>
       </c>
       <c r="B16" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A16&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="str">
         <v>R</v>
       </c>
       <c r="B17" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A17&amp;"*")</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="str">
         <v>Azure</v>
       </c>
       <c r="B18" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A18&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="str">
         <v>Java</v>
       </c>
       <c r="B19" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A19&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="str">
         <v>SQL</v>
       </c>
       <c r="B20" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A20&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="str">
         <v>Snowflake</v>
       </c>
       <c r="B21" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A21&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="str">
         <v>Scala</v>
       </c>
       <c r="B22" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A22&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="str">
         <v>Excel</v>
       </c>
       <c r="B23" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A23&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="str">
         <v>Tableau</v>
       </c>
       <c r="B24" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A24&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" s="1">
-        <f>COUNTIF(Data!$H$2:$H$21, "*"&amp;Skills!A25&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/2_Formulas_Functions/8_Text_Functions.xlsx
+++ b/2_Formulas_Functions/8_Text_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E16270C-16CF-4500-B3A8-DBB4542786E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289F5FEB-D4A0-4E30-9E0C-8AA9F558B1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -343,10 +343,10 @@
     <t>Application Date &amp; Time</t>
   </si>
   <si>
-    <t>=TEXTJOIN(", ", TRUE, Data!H1:H20)</t>
-  </si>
-  <si>
     <t>=COUNTIF($6:$6,A9)</t>
+  </si>
+  <si>
+    <t>=TEXTJOIN(", ", TRUE, Data!H2:H21)</t>
   </si>
 </sst>
 </file>
@@ -541,11 +541,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1790,27 +1790,27 @@
       <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.578125" customWidth="1"/>
-    <col min="2" max="2" width="14.26171875" customWidth="1"/>
-    <col min="3" max="3" width="27.26171875" customWidth="1"/>
-    <col min="4" max="4" width="17.578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.26171875" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" customWidth="1"/>
+    <col min="3" max="3" width="27.265625" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.265625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="8.83984375" customWidth="1"/>
-    <col min="10" max="10" width="34.734375" customWidth="1"/>
-    <col min="11" max="11" width="8.83984375" customWidth="1"/>
-    <col min="12" max="12" width="13.3125" customWidth="1"/>
-    <col min="13" max="13" width="15.47265625" customWidth="1"/>
-    <col min="14" max="14" width="8.83984375" customWidth="1"/>
-    <col min="15" max="15" width="16.41796875" customWidth="1"/>
+    <col min="9" max="9" width="8.86328125" customWidth="1"/>
+    <col min="10" max="10" width="34.73046875" customWidth="1"/>
+    <col min="11" max="11" width="8.86328125" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.46484375" customWidth="1"/>
+    <col min="14" max="14" width="8.86328125" customWidth="1"/>
+    <col min="15" max="15" width="16.3984375" customWidth="1"/>
     <col min="17" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1847,18 +1847,18 @@
       <c r="O1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>NY</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -2637,21 +2637,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.68359375" customWidth="1"/>
-    <col min="3" max="3" width="27.26171875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.578125" customWidth="1"/>
+    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="29.15625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>203 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>457 Oak St San Jose, CA, 95101</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>790 Pine St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>123 Elm St Los Angeles, CA, 90001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>123 Elm St San Diego, CA, 92101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>202 Birch St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>204 Birch St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>123 Elm St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>456 Oak St Chicago, IL, 60601</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>203 Birch St Chicago, IL, 60602</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>456 Oak St New York, NY, 10001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>459 Oak St Philadelphia, PA, 19101</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -3291,23 +3291,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="9" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="11.83984375" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.26171875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0123548</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>0123549</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>0123550</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0123551</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>0123552</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>0123553</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>0123554</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0123555</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0123556</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>0123557</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0123558</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>0123559</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>0123560</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0123561</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0123562</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>0123563</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0123564</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>0123565</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0123566</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -4196,21 +4196,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.15625" customWidth="1"/>
-    <col min="5" max="5" width="26.15625" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" customWidth="1"/>
+    <col min="5" max="5" width="26.1328125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="40" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.15625" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -4235,13 +4235,13 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>83</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>85</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>86</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>IL</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>NY</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>PA</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -5013,32 +5013,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85789AE4-586B-4DA1-B069-1172780CDADC}">
   <dimension ref="A2:BW25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.41796875" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
         <f>_xlfn.TEXTJOIN(", ",TRUE,Data!H2:H21)</f>
         <v>Kafka, DataBricks, Spark, Python, GCP, Power BI, GCP, Airflow, Hadoop, R, Azure, Java, SQL, DataBricks, Kafka, DataBricks, Spark, Python, GCP, DataBricks, Hadoop, Java, Snowflake, Airflow, DataBricks, Azure, Java, SQL, DataBricks, Snowflake, Airflow, DataBricks, Scala, Azure, R, Kafka, Snowflake, Excel, Scala, Excel, Power BI, R, Scala, R, Hadoop, Power BI, SQL, Snowflake, Airflow, DataBricks, Java, Scala, R, DataBricks, Azure, Scala, Power BI, GCP, Airflow, Hadoop, R, DataBricks, Hadoop, Java, Snowflake, Power BI, Tableau, Airflow, SQL, DataBricks, Hadoop, Java, DataBricks, Hadoop, Java</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.45">
+      <c r="A5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A6" t="str" cm="1">
         <f t="array" ref="A6:BW6">_xlfn.TEXTSPLIT(A3,", ")</f>
         <v>Kafka</v>
@@ -5266,19 +5268,19 @@
         <v>Java</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.45">
+      <c r="A8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="str" cm="1">
         <f t="array" ref="A9:A25">_xlfn.UNIQUE(TRANSPOSE(6:6))</f>
         <v>Kafka</v>
@@ -5288,7 +5290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="str">
         <v>DataBricks</v>
       </c>
@@ -5297,7 +5299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="str">
         <v>Spark</v>
       </c>
@@ -5306,7 +5308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="str">
         <v>Python</v>
       </c>
@@ -5315,7 +5317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="str">
         <v>GCP</v>
       </c>
@@ -5324,7 +5326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="str">
         <v>Power BI</v>
       </c>
@@ -5333,7 +5335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="str">
         <v>Airflow</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="str">
         <v>Hadoop</v>
       </c>
@@ -5351,7 +5353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="str">
         <v>R</v>
       </c>
@@ -5360,7 +5362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="str">
         <v>Azure</v>
       </c>
@@ -5369,7 +5371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="str">
         <v>Java</v>
       </c>
@@ -5378,7 +5380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="str">
         <v>SQL</v>
       </c>
@@ -5387,7 +5389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="str">
         <v>Snowflake</v>
       </c>
@@ -5396,7 +5398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="str">
         <v>Scala</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="str">
         <v>Excel</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="str">
         <v>Tableau</v>
       </c>
@@ -5423,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0</v>
       </c>
